--- a/app/static/表1-4-1专业基本情况数据0915.xlsx
+++ b/app/static/表1-4-1专业基本情况数据0915.xlsx
@@ -1,13 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="750" yWindow="825" windowWidth="27495" windowHeight="9615"/>
   </bookViews>
   <sheets>
-    <sheet name="1-4-1专业基本情况数据" r:id="rId3" sheetId="1"/>
+    <sheet name="1-4-1专业基本情况数据" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -55,9 +57,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>020101</t>
     </r>
@@ -65,9 +68,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>经济学</t>
     </r>
@@ -75,9 +79,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>财政金融学院</t>
     </r>
@@ -85,9 +90,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>X2100</t>
     </r>
@@ -95,9 +101,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>2004</t>
     </r>
@@ -105,9 +112,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>4</t>
     </r>
@@ -115,9 +123,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>6</t>
     </r>
@@ -125,9 +134,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>在招</t>
     </r>
@@ -135,9 +145,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>否</t>
     </r>
@@ -145,9 +156,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>无</t>
     </r>
@@ -155,9 +167,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>020102</t>
     </r>
@@ -165,9 +178,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>经济统计学</t>
     </r>
@@ -175,9 +189,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>数学与统计学院</t>
     </r>
@@ -185,9 +200,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>X1000</t>
     </r>
@@ -195,9 +211,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>2012</t>
     </r>
@@ -205,9 +222,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>已停招</t>
     </r>
@@ -215,9 +233,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>020301K</t>
     </r>
@@ -225,9 +244,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>金融学</t>
     </r>
@@ -235,9 +255,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>020401</t>
     </r>
@@ -245,9 +266,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>国际经济与贸易</t>
     </r>
@@ -255,9 +277,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>商学院</t>
     </r>
@@ -265,9 +288,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>X0900</t>
     </r>
@@ -275,9 +299,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>2001</t>
     </r>
@@ -285,9 +310,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>030101K</t>
     </r>
@@ -295,9 +321,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>法学</t>
     </r>
@@ -305,9 +332,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>政法学院</t>
     </r>
@@ -315,9 +343,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>X0500</t>
     </r>
@@ -325,9 +354,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>1985</t>
     </r>
@@ -335,9 +365,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>030302</t>
     </r>
@@ -345,9 +376,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>社会工作</t>
     </r>
@@ -355,9 +387,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>1996</t>
     </r>
@@ -365,9 +398,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>当年停招</t>
     </r>
@@ -375,9 +409,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>030503</t>
     </r>
@@ -385,9 +420,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>思想政治教育</t>
     </r>
@@ -395,9 +431,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>马克思主义学院</t>
     </r>
@@ -405,9 +442,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>X0501</t>
     </r>
@@ -415,9 +453,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>1960</t>
     </r>
@@ -425,9 +464,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>S</t>
     </r>
@@ -435,9 +475,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>030504T</t>
     </r>
@@ -445,9 +486,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>马克思主义理论</t>
     </r>
@@ -455,9 +497,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>2020</t>
     </r>
@@ -465,9 +508,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>是</t>
     </r>
@@ -475,9 +519,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>040104</t>
     </r>
@@ -485,9 +530,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>教育技术学</t>
     </r>
@@ -495,9 +541,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>新闻与传播学院</t>
     </r>
@@ -505,9 +552,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>X1800</t>
     </r>
@@ -515,9 +563,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>1986</t>
     </r>
@@ -525,9 +574,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>教育学</t>
     </r>
@@ -535,9 +585,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>040106</t>
     </r>
@@ -545,9 +596,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>学前教育</t>
     </r>
@@ -555,9 +607,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>教育学院</t>
     </r>
@@ -565,9 +618,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>X0100</t>
     </r>
@@ -575,9 +629,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>1989</t>
     </r>
@@ -585,9 +640,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>040107</t>
     </r>
@@ -595,9 +651,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>小学教育</t>
     </r>
@@ -605,9 +662,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>2010</t>
     </r>
@@ -615,9 +673,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>040108</t>
     </r>
@@ -625,9 +684,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>特殊教育</t>
     </r>
@@ -635,9 +695,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>040201</t>
     </r>
@@ -645,9 +706,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>体育教育</t>
     </r>
@@ -655,9 +717,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>体育学院</t>
     </r>
@@ -665,9 +728,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>X1400</t>
     </r>
@@ -675,9 +739,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>1981</t>
     </r>
@@ -685,9 +750,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>040202K</t>
     </r>
@@ -695,9 +761,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>运动训练</t>
     </r>
@@ -705,9 +772,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>2003</t>
     </r>
@@ -715,9 +783,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>040203</t>
     </r>
@@ -725,9 +794,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>社会体育指导与管理</t>
     </r>
@@ -735,9 +805,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>2002</t>
     </r>
@@ -745,9 +816,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>040204K</t>
     </r>
@@ -755,9 +827,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>武术与民族传统体育</t>
     </r>
@@ -765,9 +838,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>050101</t>
     </r>
@@ -775,9 +849,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>汉语言文学</t>
     </r>
@@ -785,9 +860,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>文学院</t>
     </r>
@@ -795,9 +871,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>X0300</t>
     </r>
@@ -805,9 +882,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>1955</t>
     </r>
@@ -815,9 +893,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>文学</t>
     </r>
@@ -825,9 +904,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>050103</t>
     </r>
@@ -835,9 +915,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>汉语国际教育</t>
     </r>
@@ -845,9 +926,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>050201</t>
     </r>
@@ -855,9 +937,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>英语</t>
     </r>
@@ -865,9 +948,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>外国语学院</t>
     </r>
@@ -875,9 +959,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>X0600</t>
     </r>
@@ -885,9 +970,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>1963</t>
     </r>
@@ -895,9 +981,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>050202</t>
     </r>
@@ -905,9 +992,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>俄语</t>
     </r>
@@ -915,9 +1003,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>2019</t>
     </r>
@@ -925,9 +1014,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>050204</t>
     </r>
@@ -935,9 +1025,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>法语</t>
     </r>
@@ -945,9 +1036,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>2018</t>
     </r>
@@ -955,9 +1047,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>050207</t>
     </r>
@@ -965,9 +1058,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>日语</t>
     </r>
@@ -975,9 +1069,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>050209</t>
     </r>
@@ -985,9 +1080,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>朝鲜语</t>
     </r>
@@ -995,9 +1091,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>国际教育学院</t>
     </r>
@@ -1005,9 +1102,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>X1900</t>
     </r>
@@ -1015,9 +1113,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>2015</t>
     </r>
@@ -1025,9 +1124,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>050261</t>
     </r>
@@ -1035,9 +1135,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>翻译</t>
     </r>
@@ -1045,9 +1146,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>2013</t>
     </r>
@@ -1055,9 +1157,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>050262</t>
     </r>
@@ -1065,9 +1168,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>商务英语</t>
     </r>
@@ -1075,9 +1179,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>050301</t>
     </r>
@@ -1085,9 +1190,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>新闻学</t>
     </r>
@@ -1095,9 +1201,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>2006</t>
     </r>
@@ -1105,9 +1212,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>050302</t>
     </r>
@@ -1115,9 +1223,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>广播电视学</t>
     </r>
@@ -1125,9 +1234,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>2005</t>
     </r>
@@ -1135,9 +1245,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>050303</t>
     </r>
@@ -1145,9 +1256,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>广告学</t>
     </r>
@@ -1155,9 +1267,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>1998</t>
     </r>
@@ -1165,9 +1278,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>060101</t>
     </r>
@@ -1175,9 +1289,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>历史学</t>
     </r>
@@ -1185,9 +1300,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>历史文化与旅游学院</t>
     </r>
@@ -1195,9 +1311,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>X0400</t>
     </r>
@@ -1205,9 +1322,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>1954</t>
     </r>
@@ -1215,9 +1333,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>060104</t>
     </r>
@@ -1225,9 +1344,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>文物与博物馆学</t>
     </r>
@@ -1235,9 +1355,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>070101</t>
     </r>
@@ -1245,9 +1366,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>数学与应用数学</t>
     </r>
@@ -1255,9 +1377,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>理学</t>
     </r>
@@ -1265,9 +1388,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>070102</t>
     </r>
@@ -1275,9 +1399,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>信息与计算科学</t>
     </r>
@@ -1285,9 +1410,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>2000</t>
     </r>
@@ -1295,9 +1421,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>070201</t>
     </r>
@@ -1305,9 +1432,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>物理学</t>
     </r>
@@ -1315,9 +1443,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>物理与通信电子学院</t>
     </r>
@@ -1325,9 +1454,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>X1100</t>
     </r>
@@ -1335,9 +1465,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>1956</t>
     </r>
@@ -1345,9 +1476,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>070301</t>
     </r>
@@ -1355,9 +1487,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>化学</t>
     </r>
@@ -1365,9 +1498,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>化学化工学院</t>
     </r>
@@ -1375,9 +1509,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>X1200</t>
     </r>
@@ -1385,9 +1520,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>1953</t>
     </r>
@@ -1395,9 +1531,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>070302</t>
     </r>
@@ -1405,9 +1542,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>应用化学</t>
     </r>
@@ -1415,9 +1553,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>070501</t>
     </r>
@@ -1425,9 +1564,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>地理科学</t>
     </r>
@@ -1435,9 +1575,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>地理与环境学院</t>
     </r>
@@ -1445,9 +1586,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>X1600</t>
     </r>
@@ -1455,9 +1597,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>1958</t>
     </r>
@@ -1465,9 +1608,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>070502</t>
     </r>
@@ -1475,9 +1619,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>自然地理与资源环境</t>
     </r>
@@ -1485,9 +1630,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>2014</t>
     </r>
@@ -1495,9 +1641,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>070504</t>
     </r>
@@ -1505,9 +1652,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>地理信息科学</t>
     </r>
@@ -1515,9 +1663,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>071001</t>
     </r>
@@ -1525,9 +1674,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>生物科学</t>
     </r>
@@ -1535,9 +1685,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>生命科学学院</t>
     </r>
@@ -1545,9 +1696,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>X1300</t>
     </r>
@@ -1555,9 +1707,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>071002</t>
     </r>
@@ -1565,9 +1718,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>生物技术</t>
     </r>
@@ -1575,9 +1729,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>071501XW</t>
     </r>
@@ -1585,9 +1740,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>心理学（第二学位）</t>
     </r>
@@ -1595,9 +1751,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>心理学</t>
     </r>
@@ -1605,9 +1762,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>071101</t>
     </r>
@@ -1615,9 +1773,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>心理学院</t>
     </r>
@@ -1625,9 +1784,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>X0200</t>
     </r>
@@ -1635,9 +1795,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>2</t>
     </r>
@@ -1645,9 +1806,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>1997</t>
     </r>
@@ -1655,9 +1817,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>071102</t>
     </r>
@@ -1665,9 +1828,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>应用心理学</t>
     </r>
@@ -1675,9 +1839,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>071201</t>
     </r>
@@ -1685,9 +1850,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>统计学</t>
     </r>
@@ -1695,9 +1861,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>080403</t>
     </r>
@@ -1705,9 +1872,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>材料化学</t>
     </r>
@@ -1715,9 +1883,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>工学</t>
     </r>
@@ -1725,9 +1894,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>080701</t>
     </r>
@@ -1735,9 +1905,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>电子信息工程</t>
     </r>
@@ -1745,9 +1916,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>080703</t>
     </r>
@@ -1755,9 +1927,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>通信工程</t>
     </r>
@@ -1765,9 +1938,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>080705</t>
     </r>
@@ -1775,9 +1949,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>光电信息科学与工程</t>
     </r>
@@ -1785,9 +1960,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>2016</t>
     </r>
@@ -1795,9 +1971,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>080717T</t>
     </r>
@@ -1805,9 +1982,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>人工智能</t>
     </r>
@@ -1815,9 +1993,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>计算机信息工程学院</t>
     </r>
@@ -1825,9 +2004,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>X1500</t>
     </r>
@@ -1835,9 +2015,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>080901</t>
     </r>
@@ -1845,9 +2026,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>计算机科学与技术</t>
     </r>
@@ -1855,9 +2037,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>J</t>
     </r>
@@ -1865,9 +2048,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>080902</t>
     </r>
@@ -1875,9 +2059,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>软件工程</t>
     </r>
@@ -1885,9 +2070,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>软件学院</t>
     </r>
@@ -1895,9 +2081,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>X2000</t>
     </r>
@@ -1905,9 +2092,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>080903</t>
     </r>
@@ -1915,9 +2103,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>网络工程</t>
     </r>
@@ -1925,9 +2114,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>080905</t>
     </r>
@@ -1935,9 +2125,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>物联网工程</t>
     </r>
@@ -1945,9 +2136,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>080910T</t>
     </r>
@@ -1955,9 +2147,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>数据科学与大数据技术</t>
     </r>
@@ -1965,9 +2158,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>081301</t>
     </r>
@@ -1975,9 +2169,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>化学工程与工艺</t>
     </r>
@@ -1985,9 +2180,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>082710T</t>
     </r>
@@ -1995,9 +2191,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>食品营养与健康</t>
     </r>
@@ -2005,9 +2202,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>082801</t>
     </r>
@@ -2015,9 +2213,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>建筑学</t>
     </r>
@@ -2025,9 +2224,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>城市建设学院</t>
     </r>
@@ -2035,9 +2235,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>X1700</t>
     </r>
@@ -2045,9 +2246,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>2007</t>
     </r>
@@ -2055,9 +2257,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>5</t>
     </r>
@@ -2065,9 +2268,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>082802</t>
     </r>
@@ -2075,9 +2279,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>城乡规划</t>
     </r>
@@ -2085,9 +2290,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>082803</t>
     </r>
@@ -2095,9 +2301,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>风景园林</t>
     </r>
@@ -2105,9 +2312,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>083001</t>
     </r>
@@ -2115,9 +2323,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>生物工程</t>
     </r>
@@ -2125,9 +2334,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>083002T</t>
     </r>
@@ -2135,9 +2345,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>生物制药</t>
     </r>
@@ -2145,9 +2356,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>2022</t>
     </r>
@@ -2155,9 +2367,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>120103</t>
     </r>
@@ -2165,9 +2378,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>工程管理</t>
     </r>
@@ -2175,9 +2389,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>120104</t>
     </r>
@@ -2185,9 +2400,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>房地产开发与管理</t>
     </r>
@@ -2195,9 +2411,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>管理学</t>
     </r>
@@ -2205,9 +2422,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>120201K</t>
     </r>
@@ -2215,9 +2433,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>工商管理</t>
     </r>
@@ -2225,9 +2444,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>120202</t>
     </r>
@@ -2235,9 +2455,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>市场营销</t>
     </r>
@@ -2245,9 +2466,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>120203K</t>
     </r>
@@ -2255,9 +2477,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>会计学</t>
     </r>
@@ -2265,9 +2488,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>120206</t>
     </r>
@@ -2275,9 +2499,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>人力资源管理</t>
     </r>
@@ -2285,9 +2510,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>120210</t>
     </r>
@@ -2295,9 +2521,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>文化产业管理</t>
     </r>
@@ -2305,9 +2532,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>120401</t>
     </r>
@@ -2315,9 +2543,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>公共事业管理</t>
     </r>
@@ -2325,9 +2554,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>1988</t>
     </r>
@@ -2335,9 +2565,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>120402</t>
     </r>
@@ -2345,9 +2576,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>行政管理</t>
     </r>
@@ -2355,9 +2587,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>120403</t>
     </r>
@@ -2365,9 +2598,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>劳动与社会保障</t>
     </r>
@@ -2375,9 +2609,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>120801</t>
     </r>
@@ -2385,9 +2620,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>电子商务</t>
     </r>
@@ -2395,9 +2631,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>120901K</t>
     </r>
@@ -2405,9 +2642,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>旅游管理</t>
     </r>
@@ -2415,9 +2653,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>1993</t>
     </r>
@@ -2425,9 +2664,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>130201</t>
     </r>
@@ -2435,9 +2675,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>音乐表演</t>
     </r>
@@ -2445,9 +2686,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>音乐学院</t>
     </r>
@@ -2455,9 +2697,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>X0700</t>
     </r>
@@ -2465,9 +2708,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>艺术学</t>
     </r>
@@ -2475,9 +2719,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>130202</t>
     </r>
@@ -2485,9 +2730,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>音乐学</t>
     </r>
@@ -2495,9 +2741,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>1951</t>
     </r>
@@ -2505,9 +2752,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>130205</t>
     </r>
@@ -2515,9 +2763,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>舞蹈学</t>
     </r>
@@ -2525,9 +2774,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>130301</t>
     </r>
@@ -2535,9 +2785,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>表演</t>
     </r>
@@ -2545,9 +2796,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>2008</t>
     </r>
@@ -2555,9 +2807,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>130305</t>
     </r>
@@ -2565,9 +2818,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>广播电视编导</t>
     </r>
@@ -2575,9 +2829,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>130309</t>
     </r>
@@ -2585,9 +2840,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>播音与主持艺术</t>
     </r>
@@ -2595,9 +2851,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>130310</t>
     </r>
@@ -2605,9 +2862,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>动画</t>
     </r>
@@ -2615,9 +2873,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>美术学院</t>
     </r>
@@ -2625,9 +2884,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>X0800</t>
     </r>
@@ -2635,9 +2895,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>130401</t>
     </r>
@@ -2645,9 +2906,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>美术学</t>
     </r>
@@ -2655,9 +2917,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>130402</t>
     </r>
@@ -2665,9 +2928,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>绘画</t>
     </r>
@@ -2675,9 +2939,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>130502</t>
     </r>
@@ -2685,9 +2950,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>视觉传达设计</t>
     </r>
@@ -2695,9 +2961,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>130502H</t>
     </r>
@@ -2705,9 +2972,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>视觉传达设计（合作办学）</t>
     </r>
@@ -2715,9 +2983,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>130503</t>
     </r>
@@ -2725,9 +2994,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>环境设计</t>
     </r>
@@ -2735,9 +3005,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>130504</t>
     </r>
@@ -2745,9 +3016,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>产品设计</t>
     </r>
@@ -2755,9 +3027,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>130505</t>
     </r>
@@ -2765,9 +3038,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>服装与服饰设计</t>
     </r>
@@ -2775,9 +3049,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>080901-1</t>
     </r>
@@ -2785,9 +3060,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>数字产业学院</t>
     </r>
@@ -2795,9 +3071,10 @@
   <si>
     <r>
       <rPr>
-        <color indexed="12"/>
-        <sz val="11.0"/>
-        <rFont val="Calibri"/>
+        <sz val="11"/>
+        <color indexed="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>X2600</t>
     </r>
@@ -2806,53 +3083,52 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="8"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="12"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="12"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="11"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="11"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
       </patternFill>
     </fill>
     <fill>
@@ -2861,7 +3137,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2870,48 +3146,346 @@
       <diagonal/>
     </border>
     <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M89"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="15"/>
+  <sheetFormatPr defaultColWidth="16" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2952,7 +3526,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -2993,7 +3567,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
@@ -3034,7 +3608,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
@@ -3075,7 +3649,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>31</v>
       </c>
@@ -3116,7 +3690,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>36</v>
       </c>
@@ -3157,7 +3731,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
         <v>41</v>
       </c>
@@ -3198,7 +3772,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>45</v>
       </c>
@@ -3239,7 +3813,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>51</v>
       </c>
@@ -3280,7 +3854,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>55</v>
       </c>
@@ -3321,7 +3895,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>61</v>
       </c>
@@ -3362,7 +3936,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>66</v>
       </c>
@@ -3403,7 +3977,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>69</v>
       </c>
@@ -3444,7 +4018,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>71</v>
       </c>
@@ -3485,7 +4059,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>76</v>
       </c>
@@ -3526,7 +4100,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>79</v>
       </c>
@@ -3567,7 +4141,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>82</v>
       </c>
@@ -3608,7 +4182,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>84</v>
       </c>
@@ -3649,7 +4223,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>90</v>
       </c>
@@ -3690,7 +4264,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>92</v>
       </c>
@@ -3731,7 +4305,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>97</v>
       </c>
@@ -3772,7 +4346,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>100</v>
       </c>
@@ -3813,7 +4387,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>103</v>
       </c>
@@ -3854,7 +4428,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A24" s="2" t="s">
         <v>105</v>
       </c>
@@ -3895,7 +4469,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>110</v>
       </c>
@@ -3936,7 +4510,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>113</v>
       </c>
@@ -3977,7 +4551,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>115</v>
       </c>
@@ -4018,7 +4592,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>118</v>
       </c>
@@ -4059,7 +4633,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
         <v>121</v>
       </c>
@@ -4100,7 +4674,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
         <v>124</v>
       </c>
@@ -4141,7 +4715,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>129</v>
       </c>
@@ -4182,7 +4756,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>131</v>
       </c>
@@ -4223,7 +4797,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>134</v>
       </c>
@@ -4264,7 +4838,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>137</v>
       </c>
@@ -4305,7 +4879,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
         <v>142</v>
       </c>
@@ -4346,7 +4920,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>147</v>
       </c>
@@ -4387,7 +4961,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>149</v>
       </c>
@@ -4428,7 +5002,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>154</v>
       </c>
@@ -4469,7 +5043,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>157</v>
       </c>
@@ -4510,7 +5084,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>159</v>
       </c>
@@ -4551,7 +5125,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>163</v>
       </c>
@@ -4592,7 +5166,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>165</v>
       </c>
@@ -4633,7 +5207,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
         <v>168</v>
       </c>
@@ -4674,7 +5248,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
         <v>173</v>
       </c>
@@ -4715,7 +5289,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
         <v>175</v>
       </c>
@@ -4756,7 +5330,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>177</v>
       </c>
@@ -4797,7 +5371,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>180</v>
       </c>
@@ -4838,7 +5412,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
         <v>182</v>
       </c>
@@ -4879,7 +5453,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>184</v>
       </c>
@@ -4920,7 +5494,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
         <v>187</v>
       </c>
@@ -4961,7 +5535,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>191</v>
       </c>
@@ -5002,7 +5576,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
         <v>194</v>
       </c>
@@ -5043,7 +5617,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
         <v>198</v>
       </c>
@@ -5084,7 +5658,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
         <v>200</v>
       </c>
@@ -5125,7 +5699,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>202</v>
       </c>
@@ -5166,7 +5740,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
         <v>204</v>
       </c>
@@ -5207,7 +5781,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
         <v>206</v>
       </c>
@@ -5248,7 +5822,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
         <v>208</v>
       </c>
@@ -5289,7 +5863,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
         <v>214</v>
       </c>
@@ -5330,7 +5904,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
         <v>216</v>
       </c>
@@ -5371,7 +5945,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
         <v>218</v>
       </c>
@@ -5412,7 +5986,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
         <v>220</v>
       </c>
@@ -5453,7 +6027,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
         <v>223</v>
       </c>
@@ -5494,7 +6068,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>225</v>
       </c>
@@ -5535,7 +6109,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
         <v>228</v>
       </c>
@@ -5576,7 +6150,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
         <v>230</v>
       </c>
@@ -5617,7 +6191,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
         <v>232</v>
       </c>
@@ -5658,7 +6232,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
         <v>234</v>
       </c>
@@ -5699,7 +6273,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
         <v>236</v>
       </c>
@@ -5740,7 +6314,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
         <v>238</v>
       </c>
@@ -5781,7 +6355,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
         <v>241</v>
       </c>
@@ -5822,7 +6396,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
         <v>243</v>
       </c>
@@ -5863,7 +6437,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
         <v>245</v>
       </c>
@@ -5904,7 +6478,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
         <v>247</v>
       </c>
@@ -5945,7 +6519,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
         <v>250</v>
       </c>
@@ -5986,7 +6560,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
         <v>255</v>
       </c>
@@ -6027,7 +6601,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
         <v>258</v>
       </c>
@@ -6068,7 +6642,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
         <v>260</v>
       </c>
@@ -6109,7 +6683,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
         <v>263</v>
       </c>
@@ -6150,7 +6724,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
         <v>265</v>
       </c>
@@ -6191,7 +6765,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
         <v>267</v>
       </c>
@@ -6232,7 +6806,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A82" s="2" t="s">
         <v>271</v>
       </c>
@@ -6273,7 +6847,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
         <v>273</v>
       </c>
@@ -6314,7 +6888,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
         <v>275</v>
       </c>
@@ -6355,7 +6929,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
         <v>277</v>
       </c>
@@ -6396,7 +6970,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A86" s="2" t="s">
         <v>279</v>
       </c>
@@ -6437,7 +7011,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
         <v>281</v>
       </c>
@@ -6478,7 +7052,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
         <v>283</v>
       </c>
@@ -6519,7 +7093,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:13" ht="15" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
         <v>285</v>
       </c>
@@ -6561,6 +7135,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>